--- a/CSE360Project30/User Stories and Tasks.xlsx
+++ b/CSE360Project30/User Stories and Tasks.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkchun\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22608" windowHeight="7128"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22605" windowHeight="7125"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="49">
   <si>
     <t>Status</t>
   </si>
@@ -132,12 +127,6 @@
   </si>
   <si>
     <t>Done</t>
-  </si>
-  <si>
-    <t>In Progress</t>
-  </si>
-  <si>
-    <t>Not started</t>
   </si>
   <si>
     <t>Instructions: Objective of the game is to guess the number closest to the dealer's number. You begin by selecting what number you think will appear and depending on your choice you can earn more or less points based on the probability of that number landing. A CPU will also roll and compete with you, winning more points/rounds than the computer after 3 rounds will advance you to the next stage.</t>
@@ -182,8 +171,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,6 +367,7 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -426,13 +416,12 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -705,36 +694,36 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.109375" customWidth="1"/>
-    <col min="2" max="2" width="47.44140625" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.6640625" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.77734375" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" customWidth="1"/>
-    <col min="10" max="10" width="5.5546875" customWidth="1"/>
-    <col min="11" max="11" width="3.21875" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="47.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" customWidth="1"/>
+    <col min="11" max="11" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -760,22 +749,22 @@
         <v>0</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J1" s="18">
         <f>(SUM(I2:I24)/SUM(D2:D24))*100</f>
-        <v>53.488372093023251</v>
+        <v>100</v>
       </c>
       <c r="K1" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1">
+      <c r="A2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>16</v>
@@ -798,10 +787,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="24"/>
+    <row r="3" spans="1:11">
+      <c r="A3" s="25"/>
       <c r="B3" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>17</v>
@@ -816,20 +805,20 @@
       <c r="G3" s="6">
         <v>2</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="15" t="str">
+      <c r="H3" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="15">
         <f t="shared" ref="I3:I23" si="0">IF(OR(H3="Done"),D3,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="26" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>16</v>
@@ -845,17 +834,17 @@
         <v>15</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
+        <v>35</v>
+      </c>
+      <c r="I4" s="15">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="27"/>
       <c r="B5" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>18</v>
@@ -865,37 +854,37 @@
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="15" t="str">
+        <v>35</v>
+      </c>
+      <c r="I5" s="15">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="28"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="27"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="34" t="s">
-        <v>45</v>
+    <row r="7" spans="1:11">
+      <c r="A7" s="35" t="s">
+        <v>43</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>16</v>
@@ -918,10 +907,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="A8" s="36"/>
       <c r="B8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>18</v>
@@ -944,10 +933,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="35"/>
+    <row r="9" spans="1:11">
+      <c r="A9" s="37"/>
       <c r="B9" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>16</v>
@@ -970,8 +959,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="28" t="s">
+    <row r="10" spans="1:11" ht="14.45" customHeight="1">
+      <c r="A10" s="29" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -991,15 +980,15 @@
         <v>4</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="29"/>
+        <v>35</v>
+      </c>
+      <c r="I10" s="15">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="30"/>
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
@@ -1017,17 +1006,17 @@
         <v>5</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="29"/>
+        <v>35</v>
+      </c>
+      <c r="I11" s="15">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="30"/>
       <c r="B12" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>16</v>
@@ -1050,8 +1039,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="29"/>
+    <row r="13" spans="1:11" ht="15" customHeight="1">
+      <c r="A13" s="30"/>
       <c r="B13" s="5" t="s">
         <v>9</v>
       </c>
@@ -1069,15 +1058,15 @@
         <v>6</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I13" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
+        <v>35</v>
+      </c>
+      <c r="I13" s="15">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1">
+      <c r="A14" s="31"/>
       <c r="B14" s="5" t="s">
         <v>30</v>
       </c>
@@ -1093,15 +1082,15 @@
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I14" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="15">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A15" s="20" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -1128,8 +1117,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
+    <row r="16" spans="1:11">
+      <c r="A16" s="21"/>
       <c r="B16" s="7" t="s">
         <v>13</v>
       </c>
@@ -1154,8 +1143,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
+    <row r="17" spans="1:9">
+      <c r="A17" s="21"/>
       <c r="B17" s="9" t="s">
         <v>14</v>
       </c>
@@ -1180,22 +1169,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="21"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
+    <row r="18" spans="1:9">
+      <c r="A18" s="22"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
       <c r="I18" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="31" t="s">
+    <row r="19" spans="1:9" ht="15" customHeight="1">
+      <c r="A19" s="32" t="s">
         <v>33</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -1215,15 +1204,15 @@
         <v>11</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I19" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="31"/>
+        <v>35</v>
+      </c>
+      <c r="I19" s="15">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="32"/>
       <c r="B20" s="3" t="s">
         <v>21</v>
       </c>
@@ -1241,15 +1230,15 @@
         <v>10</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I20" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="31"/>
+        <v>35</v>
+      </c>
+      <c r="I20" s="15">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="32"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
       <c r="D21" s="4"/>
@@ -1262,8 +1251,8 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="32" t="s">
+    <row r="22" spans="1:9">
+      <c r="A22" s="33" t="s">
         <v>34</v>
       </c>
       <c r="B22" s="12" t="s">
@@ -1283,15 +1272,15 @@
         <v>13</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I22" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="32"/>
+        <v>35</v>
+      </c>
+      <c r="I22" s="15">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="33"/>
       <c r="B23" s="12"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
@@ -1304,8 +1293,8 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="33"/>
+    <row r="24" spans="1:9">
+      <c r="A24" s="34"/>
       <c r="B24" s="3" t="s">
         <v>27</v>
       </c>
@@ -1323,14 +1312,14 @@
         <v>14</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I24" s="15" t="str">
-        <f t="shared" ref="I3:I24" si="1">IF(OR(H24="Done"),D24,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="I24" s="15">
+        <f t="shared" ref="I24" si="1">IF(OR(H24="Done"),D24,"")</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="B25" s="2" t="s">
         <v>25</v>
       </c>
@@ -1338,47 +1327,47 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
+    <row r="26" spans="1:9">
+      <c r="A26" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="8">
